--- a/q1_dataFiles/07_Hypothesentesten_Testplanung.xlsx
+++ b/q1_dataFiles/07_Hypothesentesten_Testplanung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF72C1-9238-4445-A11D-6FA72476F3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A720A2C0-06FC-42C2-BA1C-77ADEDE4767C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10395" tabRatio="827" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10395" tabRatio="827" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Szenario und Aufgabe" sheetId="7" r:id="rId1"/>
@@ -16,6 +16,10 @@
     <sheet name="Lösung gerichtet mit d = 0.5" sheetId="14" r:id="rId6"/>
     <sheet name="Restliche Lösungen" sheetId="15" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Lösung N = 68'!$C$2:$C$35</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Lösung N = 68'!$C$2:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -168,9 +172,6 @@
     <t>Die Größe des Effekts schwankt recht stark zwischen den einzelnen simulierten Experimenten.</t>
   </si>
   <si>
-    <t>8 von 10 Experimenten zeigen einen signifikanten Effekt. Hätten wir hier nur das erste oder das achte Experiment durchgeführt, hätten wir einen Beta-Fehler begangen (die H0 fälschlicherweise zurückgewiesen).</t>
-  </si>
-  <si>
     <t>(In diesem Fall wissen wir, dass es einen wahren Effekt gibt, weil wir ihn in die simulierten Daten eingebaut haben. Normalerweise könnte man sich da natürlich auch nach 8 von 10 signifikanten Befunden nicht hundertprozentig sicher sein.)</t>
   </si>
   <si>
@@ -250,6 +251,9 @@
   </si>
   <si>
     <t>In der ersten beispielhaften Simulation liegt der Effekt in den Daten nahe am wahren Effekt, aber der Test wird nicht signifikant. (Wenn Sie sich mehr Dezimalstellen anzeigen lassen, sehen Sie, dass der p-Wert noch etwas über 0,05 liegt.)</t>
+  </si>
+  <si>
+    <t>8 von 10 Experimenten zeigen einen signifikanten Effekt. Hätten wir hier nur das erste oder das achte Experiment durchgeführt, hätten wir einen Beta-Fehler begangen (die H0 fälschlicherweise beibehalten).</t>
   </si>
 </sst>
 </file>
@@ -543,10 +547,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>4.7639530757389732</c:v>
+                    <c:v>5.900524290209181</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.4127190332662378</c:v>
+                    <c:v>4.8462289636863565</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -558,10 +562,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>4.7639530757389732</c:v>
+                    <c:v>5.900524290209181</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.4127190332662378</c:v>
+                    <c:v>4.8462289636863565</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -601,10 +605,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>101.30172085185507</c:v>
+                  <c:v>99.672173539713455</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.766840056098843</c:v>
+                  <c:v>96.345836221685374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,10 +1005,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>3.3181117969929552</c:v>
+                    <c:v>3.4900742958055457</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.6686633389170891</c:v>
+                    <c:v>3.5901479423574205</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1016,10 +1020,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>3.3181117969929552</c:v>
+                    <c:v>3.4900742958055457</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.6686633389170891</c:v>
+                    <c:v>3.5901479423574205</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1059,10 +1063,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100.03999732824963</c:v>
+                  <c:v>99.482421330454159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.893629051587851</c:v>
+                  <c:v>94.123018574236568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,10 +1463,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>4.847161084624342</c:v>
+                    <c:v>5.4338029421524272</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.8643112116703175</c:v>
+                    <c:v>5.6455847288855887</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1474,10 +1478,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>4.847161084624342</c:v>
+                    <c:v>5.4338029421524272</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.8643112116703175</c:v>
+                    <c:v>5.6455847288855887</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1517,10 +1521,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>99.391140720605492</c:v>
+                  <c:v>103.08781236937999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.551126449784149</c:v>
+                  <c:v>90.852787258450505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,7 +4449,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>482601</xdr:colOff>
+      <xdr:colOff>492126</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>37886</xdr:rowOff>
     </xdr:to>
@@ -4506,9 +4510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>450972</xdr:colOff>
+      <xdr:colOff>454147</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4555,9 +4559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>82877</xdr:colOff>
+      <xdr:colOff>92402</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>12905</xdr:rowOff>
+      <xdr:rowOff>16080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4604,9 +4608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>546255</xdr:colOff>
+      <xdr:colOff>549430</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>146092</xdr:rowOff>
+      <xdr:rowOff>149267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4689,7 +4693,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>638981</xdr:colOff>
+      <xdr:colOff>645331</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>970</xdr:rowOff>
     </xdr:to>
@@ -4740,7 +4744,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>343703</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>143845</xdr:rowOff>
+      <xdr:rowOff>150195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6486,7 +6490,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>92.882203325561164</v>
+        <v>114.37381444494616</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6498,7 +6502,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C35" ca="1" si="0">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>128.16996181451103</v>
+        <v>118.22651882012882</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6510,7 +6514,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84.32848414883189</v>
+        <v>108.5258875413694</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -6543,7 +6547,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99.531687147322842</v>
+        <v>110.29370107711875</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -6574,7 +6578,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111.51937713649902</v>
+        <v>101.63462766562306</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
@@ -6607,7 +6611,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110.25790061445662</v>
+        <v>119.72806630411064</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>16</v>
@@ -6640,7 +6644,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75.628050346653964</v>
+        <v>84.700361351819708</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>17</v>
@@ -6673,7 +6677,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>129.41639548222713</v>
+        <v>64.574753947317419</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
@@ -6704,7 +6708,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>77.552972166422933</v>
+        <v>92.410992940648455</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -6737,7 +6741,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99.403036641494239</v>
+        <v>103.88147948058561</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>19</v>
@@ -6770,7 +6774,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71.471684913916562</v>
+        <v>79.530874396708228</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>20</v>
@@ -6803,7 +6807,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111.21915320415847</v>
+        <v>90.728320843690156</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
@@ -6834,7 +6838,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117.19936592434738</v>
+        <v>112.27408775423044</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>23</v>
@@ -6867,7 +6871,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>98.565954949226295</v>
+        <v>87.173526674450628</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>21</v>
@@ -6900,7 +6904,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104.12638100926931</v>
+        <v>101.26820562902896</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -6931,7 +6935,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84.883237818037699</v>
+        <v>94.539978109479392</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>22</v>
@@ -6964,7 +6968,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104.18837465163756</v>
+        <v>86.594737246571412</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>24</v>
@@ -6997,7 +7001,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.240040690508224</v>
+        <v>102.15350544374283</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>29</v>
@@ -7030,7 +7034,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>72.038448122115796</v>
+        <v>82.220683834134334</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -7061,7 +7065,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>134.72963759075429</v>
+        <v>96.63129643659029</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>25</v>
@@ -7094,7 +7098,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76.408337215343352</v>
+        <v>89.370970276017502</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>26</v>
@@ -7127,7 +7131,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85.258255780668591</v>
+        <v>99.505906037373862</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -7158,7 +7162,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108.49339194368778</v>
+        <v>114.16667588732341</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -7189,7 +7193,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.57748892124033</v>
+        <v>89.485830403533868</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -7201,7 +7205,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.257918942279929</v>
+        <v>90.629552122223288</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -7213,7 +7217,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75.539899904462132</v>
+        <v>88.153651801570646</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -7225,7 +7229,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103.73304511121778</v>
+        <v>98.770837765695248</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -7237,7 +7241,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91.725039351662133</v>
+        <v>124.55434876370106</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -7249,7 +7253,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.731487468341186</v>
+        <v>105.9626279085272</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -7261,7 +7265,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>122.14759712510624</v>
+        <v>133.73491296104106</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -7273,7 +7277,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>139.93798046553388</v>
+        <v>88.649293195902459</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7285,7 +7289,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.829350327397961</v>
+        <v>86.846982176318988</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7297,7 +7301,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>87.915541792606064</v>
+        <v>96.344842132059384</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -7309,7 +7313,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103.83777167325712</v>
+        <v>96.74557996328528</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -7321,7 +7325,7 @@
       </c>
       <c r="C36" s="2">
         <f ca="1">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>81.51360551327798</v>
+        <v>121.10947583034351</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -7333,7 +7337,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ref="C37:C69" ca="1" si="1">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>75.795620142204712</v>
+        <v>68.124550222775866</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -7351,7 +7355,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>103.03587694745588</v>
+        <v>112.57190618631438</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -7368,7 +7372,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>108.76757420379727</v>
+        <v>105.55682213486784</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -7385,7 +7389,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97.056797356486513</v>
+        <v>76.40664553395213</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -7402,7 +7406,7 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>68.007877391471709</v>
+        <v>101.38422404961545</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -7419,7 +7423,7 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>89.906457122181138</v>
+        <v>92.213464288899459</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7431,7 +7435,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>122.28469413340243</v>
+        <v>83.037490575259241</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7443,7 +7447,7 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>66.884088610206675</v>
+        <v>91.555589172781495</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -7458,7 +7462,7 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>111.79442467997536</v>
+        <v>86.058710306415747</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -7474,7 +7478,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>82.312351532917091</v>
+        <v>42.92685441726416</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -7489,7 +7493,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>84.92535501870401</v>
+        <v>109.77933374564611</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -7504,7 +7508,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>86.860553497554449</v>
+        <v>100.2251638969155</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
@@ -7519,7 +7523,7 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88.682085981958281</v>
+        <v>106.2074768071088</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -7534,7 +7538,7 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>108.65437973558383</v>
+        <v>74.187831425273487</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -7546,7 +7550,7 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88.987823028108821</v>
+        <v>69.351901024970601</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7558,7 +7562,7 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>92.822504159295349</v>
+        <v>88.299477164730234</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -7573,7 +7577,7 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>85.452163834643102</v>
+        <v>115.46239384799757</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -7585,7 +7589,7 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>93.194362992075668</v>
+        <v>95.768738825271896</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
@@ -7600,7 +7604,7 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.50785404613767</v>
+        <v>126.81963891906975</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -7612,7 +7616,7 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96.727388271829454</v>
+        <v>71.3845825527941</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -7624,7 +7628,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97.865882033384821</v>
+        <v>71.704195663932609</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -7636,7 +7640,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>70.620352752784029</v>
+        <v>80.722159778168646</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -7648,7 +7652,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>84.968041702424273</v>
+        <v>55.880959510352831</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -7660,7 +7664,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>89.840651694668523</v>
+        <v>130.69206443444421</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -7672,7 +7676,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96.01088574439737</v>
+        <v>94.752527432736755</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -7684,7 +7688,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88.458640459782629</v>
+        <v>94.818095623910423</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -7696,7 +7700,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>84.348453201294248</v>
+        <v>88.740865392863256</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -7708,7 +7712,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>84.923828946128125</v>
+        <v>97.789518723214229</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7720,7 +7724,7 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>89.000906233883427</v>
+        <v>106.62790054370302</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,7 +7736,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>80.641237872924762</v>
+        <v>92.365430812258822</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7744,7 +7748,7 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87.11734843289365</v>
+        <v>84.563243694710579</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7756,7 +7760,7 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>69.955177461137239</v>
+        <v>107.86853618920924</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7768,7 +7772,7 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>119.51468830081272</v>
+        <v>109.73303329532077</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7817,7 +7821,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>73.814428038316436</v>
+        <v>94.796316058101283</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7829,7 +7833,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C36" ca="1" si="0">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>116.41960206952133</v>
+        <v>114.03067709348858</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7841,7 +7845,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.38904300655051</v>
+        <v>106.95992157275681</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -7874,7 +7878,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.63712322605384</v>
+        <v>114.22195371324105</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -7905,7 +7909,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89.590443389303289</v>
+        <v>101.03855578499657</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
@@ -7938,7 +7942,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.175379992468919</v>
+        <v>107.17297336234569</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>16</v>
@@ -7971,7 +7975,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.366008838686312</v>
+        <v>99.586753490485748</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>17</v>
@@ -8004,7 +8008,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101.32366877551222</v>
+        <v>104.50198514423313</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
@@ -8035,7 +8039,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103.9711751751562</v>
+        <v>113.678983342039</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -8068,7 +8072,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.130466434513011</v>
+        <v>128.0897216028369</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>19</v>
@@ -8101,7 +8105,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.394181276394505</v>
+        <v>114.49581301262734</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>20</v>
@@ -8134,7 +8138,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.215059035461948</v>
+        <v>87.640254542946494</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
@@ -8165,7 +8169,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116.61775714068763</v>
+        <v>90.624364770507796</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>23</v>
@@ -8198,7 +8202,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89.812084061997936</v>
+        <v>95.887759392039555</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>21</v>
@@ -8231,7 +8235,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97.697891579449575</v>
+        <v>133.5313292017326</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -8262,7 +8266,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117.14691112143063</v>
+        <v>82.938620962541648</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>22</v>
@@ -8295,7 +8299,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125.13098825007138</v>
+        <v>95.916190732124448</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>24</v>
@@ -8328,7 +8332,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>82.106806872386272</v>
+        <v>104.28079808902116</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>29</v>
@@ -8361,7 +8365,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.890694806635153</v>
+        <v>124.93470333930307</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -8392,7 +8396,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>123.61971475105516</v>
+        <v>106.28523030053839</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>25</v>
@@ -8425,7 +8429,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>130.48407982689196</v>
+        <v>68.780373321703166</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>26</v>
@@ -8458,7 +8462,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91.973665255147836</v>
+        <v>96.124263853872492</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -8489,7 +8493,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88.092923989570451</v>
+        <v>105.85033259489863</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -8520,7 +8524,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.097116251675033</v>
+        <v>113.46961301571923</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -8532,7 +8536,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117.22489054871382</v>
+        <v>106.19306337020728</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -8544,7 +8548,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.243451180739029</v>
+        <v>115.94398935949857</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -8556,7 +8560,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.69727114573158</v>
+        <v>98.646016291192595</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -8568,7 +8572,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89.563316161157999</v>
+        <v>145.97559092767631</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -8580,7 +8584,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84.169678163508081</v>
+        <v>99.217030566378313</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -8592,7 +8596,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99.97309607876899</v>
+        <v>103.60723197529254</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -8604,7 +8608,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101.94402976851917</v>
+        <v>124.73739610486919</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -8616,7 +8620,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90.657516904633439</v>
+        <v>94.572616179367515</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -8628,7 +8632,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.94964728029754</v>
+        <v>100.45690948156745</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -8640,7 +8644,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116.38642305765087</v>
+        <v>93.425472394934374</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -8652,7 +8656,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105.1037940869651</v>
+        <v>85.044118223589081</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -8664,7 +8668,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ref="C37:C87" ca="1" si="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>95.435232595268914</v>
+        <v>79.710950424675872</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -8682,7 +8686,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>118.72760314359621</v>
+        <v>90.717895461291192</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -8699,7 +8703,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>112.26640124978228</v>
+        <v>93.409590067529138</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -8716,7 +8720,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>120.60360760217566</v>
+        <v>95.822101503036848</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -8733,7 +8737,7 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>91.56768559402127</v>
+        <v>115.42272082658137</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -8750,7 +8754,7 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>94.968469288285462</v>
+        <v>115.17755390793231</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -8762,7 +8766,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>103.17620755313779</v>
+        <v>140.24944220453284</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8774,7 +8778,7 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>121.5301916910151</v>
+        <v>100.31536389076545</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -8789,7 +8793,7 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>81.005935328154976</v>
+        <v>99.196823629969444</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -8805,7 +8809,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>106.81361362485302</v>
+        <v>110.41206735873432</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -8820,7 +8824,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>104.97217172686827</v>
+        <v>106.90414150629135</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -8835,7 +8839,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>99.310009980924235</v>
+        <v>100.08698703667584</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
@@ -8850,7 +8854,7 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>74.500675119391161</v>
+        <v>117.54741714975196</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -8865,7 +8869,7 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>82.361941397048483</v>
+        <v>94.78291542099025</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8877,7 +8881,7 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>98.375886227234233</v>
+        <v>119.32204919970849</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8889,7 +8893,7 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>86.006782471123643</v>
+        <v>111.73921170534257</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -8904,7 +8908,7 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100.4125934069653</v>
+        <v>91.679965592248863</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8916,7 +8920,7 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>111.37875532214659</v>
+        <v>102.12285665390566</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
@@ -8931,7 +8935,7 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.56117527551572</v>
+        <v>108.30970119673124</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8943,7 +8947,7 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>84.135782983125992</v>
+        <v>102.73210815718787</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8955,7 +8959,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>69.618129362670189</v>
+        <v>95.775178830274001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -8967,7 +8971,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>89.599028585772317</v>
+        <v>134.97416170004755</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -8979,7 +8983,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>131.38101793799797</v>
+        <v>126.22370422919788</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -8991,7 +8995,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>80.657346596652417</v>
+        <v>67.669681337418126</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -9003,7 +9007,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>75.234712219572486</v>
+        <v>95.429679384307619</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -9015,7 +9019,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>108.51128062011011</v>
+        <v>74.007352447551895</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -9027,7 +9031,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.91910099434604</v>
+        <v>111.69891520393082</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -9039,7 +9043,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>107.61916072299144</v>
+        <v>100.2691747747734</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9051,7 +9055,7 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>105.71839568684186</v>
+        <v>82.639310909600113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,7 +9067,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>101.65524885863859</v>
+        <v>94.27303035143197</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9075,7 +9079,7 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>93.271881032443531</v>
+        <v>90.927743839817296</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9087,7 +9091,7 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.817830831299418</v>
+        <v>98.709838149821977</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9099,7 +9103,7 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87.147449670768381</v>
+        <v>81.403270260656257</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9111,7 +9115,7 @@
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>113.61687680460116</v>
+        <v>112.06943291882172</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9123,7 +9127,7 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>78.343850243480333</v>
+        <v>137.55939670943505</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9135,7 +9139,7 @@
       </c>
       <c r="C72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>68.535034379685698</v>
+        <v>124.68525454975646</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9147,7 +9151,7 @@
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>123.59972138007862</v>
+        <v>81.188808992961938</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9159,7 +9163,7 @@
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96.667961570710347</v>
+        <v>97.932459803953662</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9171,7 +9175,7 @@
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>104.55353782152726</v>
+        <v>83.497332529482108</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9183,7 +9187,7 @@
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>120.2681701945625</v>
+        <v>119.03707497470269</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,7 +9199,7 @@
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.278011963083003</v>
+        <v>124.63257065353304</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9207,7 +9211,7 @@
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>129.51428102735642</v>
+        <v>92.174171024599602</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9219,7 +9223,7 @@
       </c>
       <c r="C79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>78.516767765877461</v>
+        <v>127.26952382826275</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -9231,7 +9235,7 @@
       </c>
       <c r="C80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>115.86729239908955</v>
+        <v>106.24742587477883</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -9243,7 +9247,7 @@
       </c>
       <c r="C81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>79.837860628767615</v>
+        <v>107.74653760198406</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -9255,7 +9259,7 @@
       </c>
       <c r="C82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.26176629907374</v>
+        <v>95.354380781267352</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -9267,7 +9271,7 @@
       </c>
       <c r="C83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>93.265793536661818</v>
+        <v>133.9553760332858</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -9279,7 +9283,7 @@
       </c>
       <c r="C84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>94.432549628865686</v>
+        <v>112.49712659767155</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -9291,7 +9295,7 @@
       </c>
       <c r="C85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>83.96248345064177</v>
+        <v>113.79694753510903</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -9303,7 +9307,7 @@
       </c>
       <c r="C86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>112.28282680814493</v>
+        <v>109.71175335833476</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -9315,7 +9319,7 @@
       </c>
       <c r="C87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100.2284807825321</v>
+        <v>107.84961840870727</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,7 +9331,7 @@
       </c>
       <c r="C88" s="2">
         <f t="shared" ref="C88:C121" ca="1" si="2">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>91.805592262731309</v>
+        <v>88.945913882293581</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -9339,7 +9343,7 @@
       </c>
       <c r="C89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91.657869892468028</v>
+        <v>72.854945959799679</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -9351,7 +9355,7 @@
       </c>
       <c r="C90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97.491592084210552</v>
+        <v>92.645159948776538</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -9363,7 +9367,7 @@
       </c>
       <c r="C91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94.543935929417927</v>
+        <v>73.606609979030679</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -9375,7 +9379,7 @@
       </c>
       <c r="C92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96.983816506398625</v>
+        <v>92.861176625613766</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -9387,7 +9391,7 @@
       </c>
       <c r="C93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91.608629776246289</v>
+        <v>104.68049492712723</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -9399,7 +9403,7 @@
       </c>
       <c r="C94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100.64319530600547</v>
+        <v>86.757109832201508</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -9411,7 +9415,7 @@
       </c>
       <c r="C95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94.009128872928613</v>
+        <v>93.119650786891668</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9423,7 +9427,7 @@
       </c>
       <c r="C96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>86.098461615859847</v>
+        <v>101.11139524853094</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -9435,7 +9439,7 @@
       </c>
       <c r="C97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81.663488973834731</v>
+        <v>105.96392155887952</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -9447,7 +9451,7 @@
       </c>
       <c r="C98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>67.335810270062694</v>
+        <v>94.838465395622379</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -9459,7 +9463,7 @@
       </c>
       <c r="C99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>106.16612796458087</v>
+        <v>117.95009060651984</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -9471,7 +9475,7 @@
       </c>
       <c r="C100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94.830409658057945</v>
+        <v>79.656630136273321</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -9483,7 +9487,7 @@
       </c>
       <c r="C101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90.592394967028696</v>
+        <v>100.13033074594961</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -9495,7 +9499,7 @@
       </c>
       <c r="C102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>108.81902882552325</v>
+        <v>86.226837653509065</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -9507,7 +9511,7 @@
       </c>
       <c r="C103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>65.254718060484578</v>
+        <v>115.02704292124855</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -9519,7 +9523,7 @@
       </c>
       <c r="C104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94.752210817519085</v>
+        <v>63.257488802249867</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -9531,7 +9535,7 @@
       </c>
       <c r="C105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>72.991295421827857</v>
+        <v>90.97178585562915</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -9543,7 +9547,7 @@
       </c>
       <c r="C106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88.613235934758322</v>
+        <v>93.7362269089476</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -9555,7 +9559,7 @@
       </c>
       <c r="C107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>104.44446079720464</v>
+        <v>73.893462039868936</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -9567,7 +9571,7 @@
       </c>
       <c r="C108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>75.155765837930446</v>
+        <v>77.011857980700682</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -9579,7 +9583,7 @@
       </c>
       <c r="C109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>86.886747428937014</v>
+        <v>67.176962656365134</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,7 +9595,7 @@
       </c>
       <c r="C110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>78.075115394187065</v>
+        <v>98.702513009682889</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -9603,7 +9607,7 @@
       </c>
       <c r="C111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97.827189787747272</v>
+        <v>102.52180067957664</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -9615,7 +9619,7 @@
       </c>
       <c r="C112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>87.359099978381124</v>
+        <v>87.061497356829335</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -9627,7 +9631,7 @@
       </c>
       <c r="C113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>79.79051981419147</v>
+        <v>86.890555146534709</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -9639,7 +9643,7 @@
       </c>
       <c r="C114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91.452652220847924</v>
+        <v>109.98153433043011</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -9651,7 +9655,7 @@
       </c>
       <c r="C115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>107.18871599041911</v>
+        <v>66.891245034199414</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -9663,7 +9667,7 @@
       </c>
       <c r="C116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>93.432115150963469</v>
+        <v>70.298124226657407</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -9675,7 +9679,7 @@
       </c>
       <c r="C117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>85.180061142142122</v>
+        <v>108.81084764265574</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -9687,7 +9691,7 @@
       </c>
       <c r="C118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83.842511222084937</v>
+        <v>86.253539624159558</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -9699,7 +9703,7 @@
       </c>
       <c r="C119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>114.94650283725902</v>
+        <v>99.46917590615567</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -9711,7 +9715,7 @@
       </c>
       <c r="C120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>106.18608310805689</v>
+        <v>63.898486843659668</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -9723,7 +9727,7 @@
       </c>
       <c r="C121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>122.82899347948859</v>
+        <v>101.52205132520695</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -9735,7 +9739,7 @@
       </c>
       <c r="C122" s="2">
         <f t="shared" ref="C122:C173" ca="1" si="3">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>86.899552665324606</v>
+        <v>78.078463895708666</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -9747,7 +9751,7 @@
       </c>
       <c r="C123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>93.372373443527053</v>
+        <v>95.486948762880715</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -9759,7 +9763,7 @@
       </c>
       <c r="C124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>71.686015911692067</v>
+        <v>63.540501620698222</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -9771,7 +9775,7 @@
       </c>
       <c r="C125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>81.892863188698954</v>
+        <v>121.06050537590733</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -9783,7 +9787,7 @@
       </c>
       <c r="C126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>112.76092171235601</v>
+        <v>72.894954704300645</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -9795,7 +9799,7 @@
       </c>
       <c r="C127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>135.35604727005702</v>
+        <v>100.56034194814811</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -9807,7 +9811,7 @@
       </c>
       <c r="C128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>61.679699464247022</v>
+        <v>81.307077156413413</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -9819,7 +9823,7 @@
       </c>
       <c r="C129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>84.233423476585017</v>
+        <v>104.11889454781452</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -9831,7 +9835,7 @@
       </c>
       <c r="C130" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.716559056881351</v>
+        <v>68.494556700244857</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -9843,7 +9847,7 @@
       </c>
       <c r="C131" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>70.103307663890021</v>
+        <v>105.3951643334122</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -9855,7 +9859,7 @@
       </c>
       <c r="C132" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>117.82538746897973</v>
+        <v>97.640019091974068</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -9867,7 +9871,7 @@
       </c>
       <c r="C133" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>119.16404533458939</v>
+        <v>121.85577042416548</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -9879,7 +9883,7 @@
       </c>
       <c r="C134" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87.314089208442667</v>
+        <v>97.625619954834974</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -9891,7 +9895,7 @@
       </c>
       <c r="C135" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>106.24365661722327</v>
+        <v>99.462053131200477</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -9903,7 +9907,7 @@
       </c>
       <c r="C136" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.766854985953174</v>
+        <v>68.217002513359517</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -9915,7 +9919,7 @@
       </c>
       <c r="C137" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87.923997534253928</v>
+        <v>102.24879886101812</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -9927,7 +9931,7 @@
       </c>
       <c r="C138" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.39172722549624</v>
+        <v>76.776776443107082</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -9939,7 +9943,7 @@
       </c>
       <c r="C139" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>83.279526170941963</v>
+        <v>100.58846440122133</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -9951,7 +9955,7 @@
       </c>
       <c r="C140" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>80.444035006369887</v>
+        <v>82.335063857234033</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -9963,7 +9967,7 @@
       </c>
       <c r="C141" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>88.401772819007988</v>
+        <v>103.22235423011453</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -9975,7 +9979,7 @@
       </c>
       <c r="C142" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>82.501977904901025</v>
+        <v>89.924388605141871</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -9987,7 +9991,7 @@
       </c>
       <c r="C143" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.126896126088511</v>
+        <v>105.20472139088919</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -9999,7 +10003,7 @@
       </c>
       <c r="C144" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>101.54413904919483</v>
+        <v>111.40589090172766</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -10011,7 +10015,7 @@
       </c>
       <c r="C145" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>101.07563684351655</v>
+        <v>83.039107635671272</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -10023,7 +10027,7 @@
       </c>
       <c r="C146" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>81.448474145708516</v>
+        <v>98.64622736647263</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -10035,7 +10039,7 @@
       </c>
       <c r="C147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>81.645282290623385</v>
+        <v>99.276394321440833</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -10047,7 +10051,7 @@
       </c>
       <c r="C148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.690015902080646</v>
+        <v>92.132888221494127</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -10059,7 +10063,7 @@
       </c>
       <c r="C149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87.68750419380865</v>
+        <v>85.225158983781284</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -10071,7 +10075,7 @@
       </c>
       <c r="C150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>75.501099824027875</v>
+        <v>77.954096720995707</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -10083,7 +10087,7 @@
       </c>
       <c r="C151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>111.48896853885512</v>
+        <v>101.32967613937927</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -10095,7 +10099,7 @@
       </c>
       <c r="C152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>115.82645839524935</v>
+        <v>77.074862815556074</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -10107,7 +10111,7 @@
       </c>
       <c r="C153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>67.249797608468171</v>
+        <v>83.405286980561968</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -10119,7 +10123,7 @@
       </c>
       <c r="C154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>107.39459889911633</v>
+        <v>93.322283230955335</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -10131,7 +10135,7 @@
       </c>
       <c r="C155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>99.320522063971609</v>
+        <v>107.26789006592206</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -10143,7 +10147,7 @@
       </c>
       <c r="C156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>109.72916944686531</v>
+        <v>93.193342422782848</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -10155,7 +10159,7 @@
       </c>
       <c r="C157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>79.046277143605707</v>
+        <v>113.32551784902191</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -10167,7 +10171,7 @@
       </c>
       <c r="C158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>110.73221053016866</v>
+        <v>86.726736492679478</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -10179,7 +10183,7 @@
       </c>
       <c r="C159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86.588547073375437</v>
+        <v>116.22716110361131</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -10191,7 +10195,7 @@
       </c>
       <c r="C160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>102.07675211603261</v>
+        <v>103.317829979842</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -10203,7 +10207,7 @@
       </c>
       <c r="C161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>80.625587883006091</v>
+        <v>132.19273822862795</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -10215,7 +10219,7 @@
       </c>
       <c r="C162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.014598195449722</v>
+        <v>81.938533772877463</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -10227,7 +10231,7 @@
       </c>
       <c r="C163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>81.383197401556501</v>
+        <v>79.704636306536329</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -10239,7 +10243,7 @@
       </c>
       <c r="C164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>101.21006214617572</v>
+        <v>89.676445447605872</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -10251,7 +10255,7 @@
       </c>
       <c r="C165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.028059803995845</v>
+        <v>88.029873007071814</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -10263,7 +10267,7 @@
       </c>
       <c r="C166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>107.88640686887476</v>
+        <v>83.635809135238986</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -10275,7 +10279,7 @@
       </c>
       <c r="C167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.62669405505612</v>
+        <v>122.58709593090845</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -10287,7 +10291,7 @@
       </c>
       <c r="C168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>75.50219411026886</v>
+        <v>112.78958240922853</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -10299,7 +10303,7 @@
       </c>
       <c r="C169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>106.30884478753163</v>
+        <v>108.33438431087423</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -10311,7 +10315,7 @@
       </c>
       <c r="C170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>116.36005060798239</v>
+        <v>119.66705348090917</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -10323,7 +10327,7 @@
       </c>
       <c r="C171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.150352771257445</v>
+        <v>104.73388668081817</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -10335,7 +10339,7 @@
       </c>
       <c r="C172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100.55722531311892</v>
+        <v>95.604606991552359</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -10347,7 +10351,7 @@
       </c>
       <c r="C173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90.042244321441473</v>
+        <v>81.12754469768241</v>
       </c>
     </row>
   </sheetData>
@@ -10361,8 +10365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AW71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB25" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10414,7 +10418,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>100.54794739364321</v>
+        <v>122.10948457772987</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -10426,7 +10430,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C35" ca="1" si="0">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>107.1053983678989</v>
+        <v>95.787469317685236</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -10438,7 +10442,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111.75344719249749</v>
+        <v>111.08225572664929</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -10471,7 +10475,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.686442223331213</v>
+        <v>110.78618949562204</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -10493,7 +10497,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
       <c r="AC5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -10505,7 +10509,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.139794139256907</v>
+        <v>95.593769854927444</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
@@ -10538,7 +10542,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125.8701073726692</v>
+        <v>49.412152788778329</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>16</v>
@@ -10611,7 +10615,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100.36582097642385</v>
+        <v>119.06785070909717</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>17</v>
@@ -10704,7 +10708,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106.3873660706964</v>
+        <v>112.26954203973247</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
@@ -10798,7 +10802,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89.873809509849366</v>
+        <v>98.24019888985876</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -10894,7 +10898,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>72.892599329126995</v>
+        <v>87.683175645127861</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>19</v>
@@ -10990,7 +10994,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105.27186703367865</v>
+        <v>73.511934649601571</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>20</v>
@@ -11086,7 +11090,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90.651811860537336</v>
+        <v>94.099880227785931</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
@@ -11138,7 +11142,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118.45320423117377</v>
+        <v>82.666154329436736</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>23</v>
@@ -11192,7 +11196,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90.683382057740246</v>
+        <v>99.069014365708341</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>21</v>
@@ -11268,7 +11272,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88.868633015217313</v>
+        <v>106.04166428018056</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -11342,7 +11346,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97.531195276177598</v>
+        <v>83.984317211306404</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>22</v>
@@ -11418,7 +11422,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120.31941585757582</v>
+        <v>109.75383064817055</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>24</v>
@@ -11494,7 +11498,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>98.049645344066249</v>
+        <v>91.370176546849905</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>29</v>
@@ -11521,7 +11525,7 @@
         <v>28</v>
       </c>
       <c r="AD19" s="16">
-        <v>5.1727346351236624E-2</v>
+        <v>5.1727346351236603E-2</v>
       </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="16">
@@ -11570,7 +11574,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.56415314919222</v>
+        <v>109.72216720868731</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -11644,7 +11648,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89.927266668714623</v>
+        <v>97.5788305293175</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>25</v>
@@ -11698,7 +11702,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.310341291035471</v>
+        <v>105.471032652441</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>26</v>
@@ -11752,7 +11756,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.74128040505266</v>
+        <v>118.58771522060815</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -11777,7 +11781,7 @@
         <v>12</v>
       </c>
       <c r="AD23" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="16" t="s">
@@ -11826,7 +11830,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128.67282627960708</v>
+        <v>121.19402573922443</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -11878,7 +11882,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86.212604823537987</v>
+        <v>94.699315427448312</v>
       </c>
       <c r="AC25" s="3" t="s">
         <v>4</v>
@@ -11933,7 +11937,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89.103722294065506</v>
+        <v>106.92108730385743</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -11945,7 +11949,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103.01618940637199</v>
+        <v>114.12492573060457</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
@@ -11957,7 +11961,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.857952304937939</v>
+        <v>102.77588218624874</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
@@ -11969,7 +11973,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.238182780399583</v>
+        <v>90.242980560496733</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
@@ -11981,7 +11985,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88.839088018452927</v>
+        <v>94.909179155137892</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
@@ -11993,10 +11997,10 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>133.33064925049797</v>
+        <v>140.34852377494957</v>
       </c>
       <c r="AD31" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
@@ -12008,10 +12012,10 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101.02503775187891</v>
+        <v>76.240463659194347</v>
       </c>
       <c r="AD32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ32" s="1"/>
     </row>
@@ -12024,7 +12028,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.3698570069011</v>
+        <v>80.3574995773007</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -12036,7 +12040,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>113.16086805834139</v>
+        <v>99.433448073910995</v>
       </c>
       <c r="AD34" t="s">
         <v>38</v>
@@ -12051,7 +12055,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116.4366022225246</v>
+        <v>93.717762246582495</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
@@ -12063,10 +12067,10 @@
       </c>
       <c r="C36" s="2">
         <f ca="1">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>82.58759911231715</v>
+        <v>90.91942077722652</v>
       </c>
       <c r="AD36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
@@ -12078,7 +12082,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ref="C37:C69" ca="1" si="1">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>82.363413905092884</v>
+        <v>79.01904235830051</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -12100,18 +12104,18 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>112.98652241349197</v>
+        <v>88.902936409376977</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="1">
         <f ca="1">AVERAGE(C2:C35)</f>
-        <v>101.30172085185507</v>
+        <v>99.672173539713455</v>
       </c>
       <c r="I38" s="1">
         <f ca="1">AVERAGE(C36:C69)</f>
-        <v>94.766840056098843</v>
+        <v>96.345836221685374</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
@@ -12123,21 +12127,21 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>73.238729133004099</v>
+        <v>97.566379212522691</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">_xlfn.STDEV.S(C2:C35)</f>
-        <v>13.653562226226496</v>
+        <v>16.910992674132334</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">_xlfn.STDEV.S(C36:C69)</f>
-        <v>12.646920099692389</v>
+        <v>13.889366176842314</v>
       </c>
       <c r="AD39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -12149,7 +12153,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>84.996171778099367</v>
+        <v>75.222855609746389</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -12174,18 +12178,18 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.67130798080996</v>
+        <v>92.426816773647644</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">_xlfn.CONFIDENCE.T(0.05,H39,34)</f>
-        <v>4.7639530757389732</v>
+        <v>5.900524290209181</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">_xlfn.CONFIDENCE.T(0.05,I39,34)</f>
-        <v>4.4127190332662378</v>
+        <v>4.8462289636863565</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
@@ -12197,10 +12201,10 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>85.740007680452109</v>
+        <v>93.487942432117762</v>
       </c>
       <c r="AD42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
@@ -12212,10 +12216,10 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>107.78851517816615</v>
+        <v>109.47882068352888</v>
       </c>
       <c r="AD43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
@@ -12227,17 +12231,17 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.7052180574747</v>
+        <v>116.68269754143988</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44">
         <f ca="1">SQRT((33*H39^2+33*I39^2)/66)</f>
-        <v>13.159869860174195</v>
+        <v>15.474110087804222</v>
       </c>
       <c r="AD44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
@@ -12249,17 +12253,17 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>91.260974435055019</v>
+        <v>91.031251672764924</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="1">
         <f ca="1">(H38-I38)/(H44*SQRT(2/34))</f>
-        <v>2.0474369471740843</v>
+        <v>0.88630881070652112</v>
       </c>
       <c r="AD45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
@@ -12271,7 +12275,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>103.0593229776899</v>
+        <v>92.322513838863799</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -12281,7 +12285,7 @@
         <v>1.996564418952312</v>
       </c>
       <c r="AD46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
@@ -12293,17 +12297,17 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.44175711741737</v>
+        <v>90.92165816866499</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
       </c>
       <c r="H47" t="str">
         <f ca="1">IF(H45&gt;H46,"ja","nein")</f>
-        <v>ja</v>
+        <v>nein</v>
       </c>
       <c r="AD47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
@@ -12315,17 +12319,17 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.495314718743</v>
+        <v>95.083892901311756</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
       </c>
       <c r="H48">
         <f ca="1">_xlfn.T.TEST(C2:C35,C36:C69,2,2)</f>
-        <v>4.4599030432824066E-2</v>
+        <v>0.37866924911634992</v>
       </c>
       <c r="AD48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -12337,17 +12341,17 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.341808504948716</v>
+        <v>71.685412173873658</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49">
         <f ca="1">_xlfn.T.DIST.2T(H45,66)</f>
-        <v>4.4599030432826536E-2</v>
+        <v>0.37866924911635447</v>
       </c>
       <c r="AD49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
@@ -12359,7 +12363,7 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>101.45267362613636</v>
+        <v>100.0954452371743</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
@@ -12371,10 +12375,10 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>82.31684460252923</v>
+        <v>88.603028662820861</v>
       </c>
       <c r="AD51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
@@ -12386,17 +12390,17 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>123.27848015883129</v>
+        <v>120.55221619918618</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="str">
         <f ca="1">IF(H48&lt;=0.05,"H1 angenommen","H0 beibehalten")</f>
-        <v>H1 angenommen</v>
+        <v>H0 beibehalten</v>
       </c>
       <c r="AD52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
@@ -12408,10 +12412,10 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95.622751634841563</v>
+        <v>80.809782663351115</v>
       </c>
       <c r="AD53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
@@ -12423,20 +12427,20 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>89.524388239457195</v>
+        <v>120.66396111565385</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
       </c>
       <c r="H54">
         <f ca="1">(H38-I38)/H44</f>
-        <v>0.49657639970534795</v>
+        <v>0.21496146137991504</v>
       </c>
       <c r="J54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -12448,13 +12452,13 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>75.741386500053125</v>
+        <v>109.91241069376939</v>
       </c>
       <c r="J55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
@@ -12466,7 +12470,7 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>108.39451000584356</v>
+        <v>83.842358466229896</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
@@ -12478,7 +12482,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100.48253214828807</v>
+        <v>124.59058345614478</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
@@ -12490,7 +12494,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>91.307530362280559</v>
+        <v>97.370557423169089</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
@@ -12502,7 +12506,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>75.468603217656579</v>
+        <v>99.007708399066701</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
@@ -12514,7 +12518,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100.2736912280466</v>
+        <v>105.5484062883984</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
@@ -12526,7 +12530,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97.339957560498604</v>
+        <v>97.807744692135387</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
@@ -12538,7 +12542,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100.99298563436419</v>
+        <v>99.80790749360682</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
@@ -12550,7 +12554,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>75.79755272486463</v>
+        <v>70.243459919917356</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
@@ -12562,7 +12566,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>79.145720447501105</v>
+        <v>116.38545363795136</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -12574,7 +12578,7 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96.148847757534966</v>
+        <v>87.170433087463408</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -12586,7 +12590,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>103.88634946748249</v>
+        <v>86.542911419372018</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -12598,7 +12602,7 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88.649267187018893</v>
+        <v>101.51469940459047</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12610,7 +12614,7 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95.687057808652227</v>
+        <v>90.735441327502485</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -12622,7 +12626,7 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87.884768602717855</v>
+        <v>109.80228139641278</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12692,7 +12696,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>82.709748873683594</v>
+        <v>118.75702216892545</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
@@ -12704,7 +12708,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C36" ca="1" si="0">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>103.77062115257256</v>
+        <v>102.03005262176255</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
@@ -12716,7 +12720,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117.49329802784194</v>
+        <v>88.113379132139443</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -12740,7 +12744,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="8"/>
       <c r="AD4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
@@ -12752,7 +12756,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121.94726435725607</v>
+        <v>89.272399542613144</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -12783,7 +12787,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97.914321081283916</v>
+        <v>107.68957234100618</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
@@ -12856,7 +12860,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106.53016753695753</v>
+        <v>114.25693100952998</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>16</v>
@@ -12949,7 +12953,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.23187676473124</v>
+        <v>79.962377760425198</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>17</v>
@@ -13045,7 +13049,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106.16685349636724</v>
+        <v>119.36735014491046</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
@@ -13139,7 +13143,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.530748008979359</v>
+        <v>114.67545114192214</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -13235,7 +13239,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.891000273076358</v>
+        <v>90.213170787128902</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>19</v>
@@ -13331,7 +13335,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.501123905169564</v>
+        <v>106.93036552706469</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>20</v>
@@ -13385,7 +13389,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>109.42973958415313</v>
+        <v>103.01336899439592</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
@@ -13437,7 +13441,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57.542812369937444</v>
+        <v>77.471761107475061</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>23</v>
@@ -13513,7 +13517,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80.970245000426033</v>
+        <v>106.15012361531281</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>21</v>
@@ -13589,7 +13593,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115.76632697041364</v>
+        <v>115.80019799542416</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -13663,7 +13667,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103.08363662899184</v>
+        <v>100.39264857432271</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>22</v>
@@ -13739,7 +13743,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93.763371830184852</v>
+        <v>78.256786870793661</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>24</v>
@@ -13815,7 +13819,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88.143000791680819</v>
+        <v>88.998534775820531</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>29</v>
@@ -13891,7 +13895,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86.521280168669662</v>
+        <v>99.9971753988101</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -13943,7 +13947,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116.21026001969057</v>
+        <v>99.530685212801416</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>25</v>
@@ -13997,7 +14001,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84.353855082364078</v>
+        <v>81.303781274424892</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>26</v>
@@ -14073,7 +14077,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118.76656518229908</v>
+        <v>123.14439876312569</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -14125,7 +14129,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74.645285208224749</v>
+        <v>114.84058559060966</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -14199,7 +14203,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.27274603461258</v>
+        <v>103.67744500237772</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
@@ -14211,7 +14215,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97.715572389757583</v>
+        <v>86.001670875652863</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
@@ -14223,7 +14227,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97.367117342533646</v>
+        <v>116.69509038918845</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
@@ -14235,7 +14239,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107.47163155892883</v>
+        <v>110.10561357354698</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
@@ -14247,10 +14251,10 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75.257155999551642</v>
+        <v>120.48551727580204</v>
       </c>
       <c r="AE29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
@@ -14262,10 +14266,10 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121.09561609700597</v>
+        <v>116.8841706134975</v>
       </c>
       <c r="AE30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
@@ -14277,7 +14281,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102.13055657439926</v>
+        <v>107.19782883097088</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
@@ -14289,10 +14293,10 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.679943159477347</v>
+        <v>122.77849087933186</v>
       </c>
       <c r="AE32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -14304,7 +14308,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91.686218250964103</v>
+        <v>113.46378826142191</v>
       </c>
       <c r="AE33" s="1">
         <f>AVERAGE(AE24,AG24,AI24,AK24,AM24,AO24,AQ24,AS24,AU24,AW24)</f>
@@ -14320,10 +14324,10 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.749944995436877</v>
+        <v>94.92083223697901</v>
       </c>
       <c r="AE34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -14335,7 +14339,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91.278360847100871</v>
+        <v>105.56467612014784</v>
       </c>
       <c r="AE35" s="1">
         <f>_xlfn.STDEV.P(AE24,AG24,AI24,AK24,AM24,AO24,AQ24,AS24,AU24,AW24)</f>
@@ -14351,7 +14355,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.310119476712757</v>
+        <v>106.94710826250315</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -14363,7 +14367,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ref="C37:C87" ca="1" si="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>112.77753094719911</v>
+        <v>120.73799637062268</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -14372,7 +14376,7 @@
         <v>8</v>
       </c>
       <c r="AE37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -14384,18 +14388,18 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>80.733711648302091</v>
+        <v>88.437865116123078</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="1">
         <f ca="1">AVERAGE(C2:C87)</f>
-        <v>100.03999732824963</v>
+        <v>99.482421330454159</v>
       </c>
       <c r="I38" s="1">
         <f ca="1">AVERAGE(C88:C173)</f>
-        <v>91.893629051587851</v>
+        <v>94.123018574236568</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -14407,21 +14411,21 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>98.508164595329319</v>
+        <v>96.534062167720691</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">_xlfn.STDEV.S(C2:C87)</f>
-        <v>15.476235780398133</v>
+        <v>16.278298019356424</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">_xlfn.STDEV.S(C88:C173)</f>
-        <v>12.447098102304565</v>
+        <v>16.745058467525954</v>
       </c>
       <c r="AE39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -14433,7 +14437,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>66.773477468889979</v>
+        <v>101.76142298876432</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -14454,21 +14458,21 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>113.90147282126557</v>
+        <v>116.34279135501075</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">_xlfn.CONFIDENCE.T(0.05,H39,86)</f>
-        <v>3.3181117969929552</v>
+        <v>3.4900742958055457</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">_xlfn.CONFIDENCE.T(0.05,I39,86)</f>
-        <v>2.6686633389170891</v>
+        <v>3.5901479423574205</v>
       </c>
       <c r="AE41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -14480,10 +14484,10 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>85.431068181792739</v>
+        <v>108.54524956155721</v>
       </c>
       <c r="AE42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -14495,7 +14499,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>114.05606683093131</v>
+        <v>105.46585790919788</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -14507,14 +14511,14 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>121.29590514516435</v>
+        <v>104.48626489538405</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44">
         <f ca="1">SQRT((85*H39^2+85*I39^2)/170)</f>
-        <v>14.043577270390713</v>
+        <v>16.513327488544608</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -14526,14 +14530,14 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>105.61805800446146</v>
+        <v>95.237012782204999</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="1">
         <f ca="1">(H38-I38)/(H44*SQRT(2/86))</f>
-        <v>3.8038249188233659</v>
+        <v>2.1282175942584027</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -14545,7 +14549,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>114.72490819273973</v>
+        <v>89.547480664603995</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -14564,7 +14568,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88.699655616385726</v>
+        <v>113.53282095875353</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -14583,14 +14587,14 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>76.49622644362799</v>
+        <v>82.575371736944646</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
       </c>
       <c r="H48">
         <f ca="1">_xlfn.T.TEST(C2:C87,C88:C173,2,2)</f>
-        <v>1.984521951413163E-4</v>
+        <v>3.4760023105013166E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -14602,14 +14606,14 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97.194280663960626</v>
+        <v>101.64045662916877</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49">
         <f ca="1">_xlfn.T.DIST.2T(H45,170)</f>
-        <v>1.9845219514132471E-4</v>
+        <v>3.4760023105014318E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -14621,7 +14625,7 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>101.34053980602464</v>
+        <v>116.63952399570742</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -14633,7 +14637,7 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>80.798155124310668</v>
+        <v>94.69501906739049</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -14645,7 +14649,7 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.90838516804899</v>
+        <v>105.30955590257378</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -14664,7 +14668,7 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142.4629425948298</v>
+        <v>106.51970411669751</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -14676,14 +14680,14 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>81.817017253652452</v>
+        <v>103.0247580470071</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
       </c>
       <c r="H54">
         <f ca="1">(H38-I38)/H44</f>
-        <v>0.58007786191609934</v>
+        <v>0.3245501404811017</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -14695,7 +14699,7 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88.497101415140563</v>
+        <v>86.23777820093197</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -14707,7 +14711,7 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>93.984453543058649</v>
+        <v>76.235375283671488</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -14719,7 +14723,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>85.594305681255662</v>
+        <v>94.906827752053161</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -14731,7 +14735,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>128.85614541906895</v>
+        <v>117.46807682522513</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -14743,7 +14747,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>129.93372226816962</v>
+        <v>102.45618149116159</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -14755,7 +14759,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.61609330193006</v>
+        <v>94.66062606793227</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -14767,7 +14771,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100.48792575255059</v>
+        <v>63.137887346051656</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -14779,7 +14783,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95.669379239890176</v>
+        <v>104.87093040050874</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -14791,7 +14795,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.725625414139984</v>
+        <v>91.60327228675709</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -14803,7 +14807,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>99.040357839291019</v>
+        <v>153.90880592504345</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -14815,7 +14819,7 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>118.66544057886817</v>
+        <v>82.117245450540707</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -14827,7 +14831,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>94.925387723383423</v>
+        <v>104.19756178915296</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -14839,7 +14843,7 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>110.42958742126451</v>
+        <v>89.128320515868182</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -14851,7 +14855,7 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96.711505009178978</v>
+        <v>114.76200854399329</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -14863,7 +14867,7 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>110.57712145864366</v>
+        <v>120.24852282864366</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -14875,7 +14879,7 @@
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88.057827482803418</v>
+        <v>121.50667849789431</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -14887,7 +14891,7 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>111.91604075135291</v>
+        <v>99.72047251052031</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -14899,7 +14903,7 @@
       </c>
       <c r="C72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>118.04756615402162</v>
+        <v>99.764886215229936</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -14911,7 +14915,7 @@
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>76.967593639803567</v>
+        <v>91.042569075661078</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -14923,7 +14927,7 @@
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>112.22263781187404</v>
+        <v>84.479575951563973</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -14935,7 +14939,7 @@
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>112.84083503600969</v>
+        <v>90.567322846357811</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -14947,7 +14951,7 @@
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>124.27788966745473</v>
+        <v>86.956936516171609</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -14959,7 +14963,7 @@
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.9097309243965</v>
+        <v>57.203628504746455</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -14971,7 +14975,7 @@
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>101.43618210148628</v>
+        <v>62.281159803046499</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -14983,7 +14987,7 @@
       </c>
       <c r="C79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>85.714705588658902</v>
+        <v>72.818945565526917</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -14995,7 +14999,7 @@
       </c>
       <c r="C80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>122.84796236484347</v>
+        <v>88.92309492572231</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -15007,7 +15011,7 @@
       </c>
       <c r="C81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>77.911480947064902</v>
+        <v>86.25896756960185</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -15019,7 +15023,7 @@
       </c>
       <c r="C82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>74.035763329967864</v>
+        <v>85.033632736918833</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -15031,7 +15035,7 @@
       </c>
       <c r="C83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>115.10289355494015</v>
+        <v>94.477018372070532</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -15043,7 +15047,7 @@
       </c>
       <c r="C84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>106.52478124552856</v>
+        <v>89.617448484444225</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -15055,7 +15059,7 @@
       </c>
       <c r="C85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.96744394433128</v>
+        <v>111.65781128894322</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -15067,7 +15071,7 @@
       </c>
       <c r="C86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.604450210385181</v>
+        <v>61.308926227120793</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -15079,7 +15083,7 @@
       </c>
       <c r="C87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.90388186035888</v>
+        <v>100.00617168238536</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -15091,7 +15095,7 @@
       </c>
       <c r="C88" s="2">
         <f t="shared" ref="C88:C121" ca="1" si="2">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>91.653563042128837</v>
+        <v>84.859806193541885</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -15103,7 +15107,7 @@
       </c>
       <c r="C89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>102.60390599542586</v>
+        <v>79.834144070293547</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -15115,7 +15119,7 @@
       </c>
       <c r="C90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92.993715119282498</v>
+        <v>116.69709974054807</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -15127,7 +15131,7 @@
       </c>
       <c r="C91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>101.31940405975186</v>
+        <v>134.54320524325701</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -15139,7 +15143,7 @@
       </c>
       <c r="C92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100.49617287219414</v>
+        <v>100.78166077854235</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -15151,7 +15155,7 @@
       </c>
       <c r="C93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>77.196238105511384</v>
+        <v>121.18167589313752</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -15163,7 +15167,7 @@
       </c>
       <c r="C94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97.76792650779268</v>
+        <v>63.484994124005439</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -15175,7 +15179,7 @@
       </c>
       <c r="C95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>85.525877316505472</v>
+        <v>92.448659674771022</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -15187,7 +15191,7 @@
       </c>
       <c r="C96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>84.841377060985295</v>
+        <v>89.192411805666794</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -15199,7 +15203,7 @@
       </c>
       <c r="C97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100.92880949618568</v>
+        <v>99.160728759408869</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -15211,7 +15215,7 @@
       </c>
       <c r="C98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>108.57290348739281</v>
+        <v>123.09642263882793</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -15223,7 +15227,7 @@
       </c>
       <c r="C99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>82.547289568914138</v>
+        <v>99.417986420911348</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -15235,7 +15239,7 @@
       </c>
       <c r="C100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92.795566533639246</v>
+        <v>74.195566494693821</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -15247,7 +15251,7 @@
       </c>
       <c r="C101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>72.13333717258503</v>
+        <v>91.995974578010106</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -15259,7 +15263,7 @@
       </c>
       <c r="C102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>80.855594363176579</v>
+        <v>113.0076449114755</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -15271,7 +15275,7 @@
       </c>
       <c r="C103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>82.345802043539081</v>
+        <v>98.720613515467832</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -15283,7 +15287,7 @@
       </c>
       <c r="C104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92.770890522728308</v>
+        <v>108.29428743609584</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -15295,7 +15299,7 @@
       </c>
       <c r="C105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>84.866175700506744</v>
+        <v>92.722196849243161</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -15307,7 +15311,7 @@
       </c>
       <c r="C106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94.554021831283208</v>
+        <v>95.188481677606049</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -15319,7 +15323,7 @@
       </c>
       <c r="C107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>78.059487234481111</v>
+        <v>83.893567401504754</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -15331,7 +15335,7 @@
       </c>
       <c r="C108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>86.506746190130698</v>
+        <v>84.082352198611488</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -15343,7 +15347,7 @@
       </c>
       <c r="C109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>109.00031172538949</v>
+        <v>107.25892111609454</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -15355,7 +15359,7 @@
       </c>
       <c r="C110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88.539727790934862</v>
+        <v>98.334461119598473</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -15367,7 +15371,7 @@
       </c>
       <c r="C111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>95.848759395668779</v>
+        <v>100.37405476366233</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -15379,7 +15383,7 @@
       </c>
       <c r="C112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>104.44798929670478</v>
+        <v>74.679460849576145</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -15391,7 +15395,7 @@
       </c>
       <c r="C113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>103.82928836514591</v>
+        <v>90.199622147510539</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -15403,7 +15407,7 @@
       </c>
       <c r="C114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>103.7012854127758</v>
+        <v>86.165745605732326</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -15415,7 +15419,7 @@
       </c>
       <c r="C115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100.4609714583848</v>
+        <v>108.2589847869926</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -15427,7 +15431,7 @@
       </c>
       <c r="C116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>87.656336317742102</v>
+        <v>98.396646569259346</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -15439,7 +15443,7 @@
       </c>
       <c r="C117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91.973780061242735</v>
+        <v>102.38928965145143</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -15451,7 +15455,7 @@
       </c>
       <c r="C118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>102.05319324530068</v>
+        <v>121.00318544552366</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -15463,7 +15467,7 @@
       </c>
       <c r="C119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100.68494971058351</v>
+        <v>98.886215895130448</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -15475,7 +15479,7 @@
       </c>
       <c r="C120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83.346426407597335</v>
+        <v>92.602123107015132</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -15487,7 +15491,7 @@
       </c>
       <c r="C121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81.524872393080614</v>
+        <v>84.069640166203314</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -15499,7 +15503,7 @@
       </c>
       <c r="C122" s="2">
         <f t="shared" ref="C122:C173" ca="1" si="3">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>75.639433093625712</v>
+        <v>78.712142354089863</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -15511,7 +15515,7 @@
       </c>
       <c r="C123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>76.469712175843512</v>
+        <v>65.900985628116274</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -15523,7 +15527,7 @@
       </c>
       <c r="C124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>91.978412542971085</v>
+        <v>90.83095094299145</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -15535,7 +15539,7 @@
       </c>
       <c r="C125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>80.133569401811613</v>
+        <v>100.06827332490964</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -15547,7 +15551,7 @@
       </c>
       <c r="C126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90.724606098646362</v>
+        <v>82.519936428366506</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -15559,7 +15563,7 @@
       </c>
       <c r="C127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87.893346810452996</v>
+        <v>81.254173919306126</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -15571,7 +15575,7 @@
       </c>
       <c r="C128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87.678669272662361</v>
+        <v>74.052268075396185</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -15583,7 +15587,7 @@
       </c>
       <c r="C129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.686315052377864</v>
+        <v>94.567824488616154</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -15595,7 +15599,7 @@
       </c>
       <c r="C130" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.542729424433915</v>
+        <v>87.887617858624068</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -15607,7 +15611,7 @@
       </c>
       <c r="C131" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100.79652256309801</v>
+        <v>108.63917102724122</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -15619,7 +15623,7 @@
       </c>
       <c r="C132" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>63.859720080221578</v>
+        <v>103.67053703775791</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -15631,7 +15635,7 @@
       </c>
       <c r="C133" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.552654762337241</v>
+        <v>104.63583144818888</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -15643,7 +15647,7 @@
       </c>
       <c r="C134" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86.809533738082564</v>
+        <v>79.5883650107275</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -15655,7 +15659,7 @@
       </c>
       <c r="C135" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86.130542177907529</v>
+        <v>85.968370552106961</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -15667,7 +15671,7 @@
       </c>
       <c r="C136" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>71.579563288189121</v>
+        <v>103.23376294036765</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -15679,7 +15683,7 @@
       </c>
       <c r="C137" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>101.94981772216423</v>
+        <v>114.95906375743982</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -15691,7 +15695,7 @@
       </c>
       <c r="C138" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.759970925237809</v>
+        <v>117.85077780732824</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -15703,7 +15707,7 @@
       </c>
       <c r="C139" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>95.310242346447893</v>
+        <v>104.83371359571244</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -15715,7 +15719,7 @@
       </c>
       <c r="C140" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>124.50613321627023</v>
+        <v>71.488564546403495</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -15727,7 +15731,7 @@
       </c>
       <c r="C141" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>97.127097430692586</v>
+        <v>72.403333195524368</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -15739,7 +15743,7 @@
       </c>
       <c r="C142" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>81.857224031602357</v>
+        <v>142.92530867067541</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -15751,7 +15755,7 @@
       </c>
       <c r="C143" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>96.432761431036582</v>
+        <v>100.73686412278296</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -15763,7 +15767,7 @@
       </c>
       <c r="C144" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90.032444737354623</v>
+        <v>105.028024858389</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -15775,7 +15779,7 @@
       </c>
       <c r="C145" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>116.70130083943837</v>
+        <v>68.528878333487171</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -15787,7 +15791,7 @@
       </c>
       <c r="C146" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94.132467783718752</v>
+        <v>93.250374660570287</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -15799,7 +15803,7 @@
       </c>
       <c r="C147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>115.59588865720652</v>
+        <v>92.576794228918416</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -15811,7 +15815,7 @@
       </c>
       <c r="C148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>107.381016017601</v>
+        <v>72.793720039403013</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -15823,7 +15827,7 @@
       </c>
       <c r="C149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>60.193286126933529</v>
+        <v>74.702441437554953</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -15835,7 +15839,7 @@
       </c>
       <c r="C150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>84.782559203761451</v>
+        <v>86.261778856884106</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -15847,7 +15851,7 @@
       </c>
       <c r="C151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>98.288947880788669</v>
+        <v>113.15507162063612</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -15859,7 +15863,7 @@
       </c>
       <c r="C152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>96.521131005253977</v>
+        <v>75.970585709758225</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -15871,7 +15875,7 @@
       </c>
       <c r="C153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>110.99849164744973</v>
+        <v>85.095264123731994</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -15883,7 +15887,7 @@
       </c>
       <c r="C154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>79.369626021643782</v>
+        <v>93.203218332090827</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -15895,7 +15899,7 @@
       </c>
       <c r="C155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>101.17280886264147</v>
+        <v>75.329333966506539</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -15907,7 +15911,7 @@
       </c>
       <c r="C156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>105.84197268792445</v>
+        <v>54.474229990726769</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -15919,7 +15923,7 @@
       </c>
       <c r="C157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>96.309342977315964</v>
+        <v>102.64079438583161</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -15931,7 +15935,7 @@
       </c>
       <c r="C158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>77.810093456013007</v>
+        <v>72.960018477747639</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -15943,7 +15947,7 @@
       </c>
       <c r="C159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>76.87903953920916</v>
+        <v>97.724396499203507</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -15955,7 +15959,7 @@
       </c>
       <c r="C160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>73.304717945512877</v>
+        <v>95.464780131790633</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -15967,7 +15971,7 @@
       </c>
       <c r="C161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>83.49046997923125</v>
+        <v>86.362878156488904</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -15979,7 +15983,7 @@
       </c>
       <c r="C162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>75.505260442116935</v>
+        <v>85.631617802287366</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -15991,7 +15995,7 @@
       </c>
       <c r="C163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>78.025050311056305</v>
+        <v>89.195060944547492</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -16003,7 +16007,7 @@
       </c>
       <c r="C164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.983134821020755</v>
+        <v>82.532622684562369</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -16015,7 +16019,7 @@
       </c>
       <c r="C165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>108.35960847243095</v>
+        <v>69.526966565931247</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -16027,7 +16031,7 @@
       </c>
       <c r="C166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>82.876010339863868</v>
+        <v>136.64121953136197</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -16039,7 +16043,7 @@
       </c>
       <c r="C167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>110.46591993709222</v>
+        <v>108.31742275991232</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -16051,7 +16055,7 @@
       </c>
       <c r="C168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86.525884653534519</v>
+        <v>86.48011649162865</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -16063,7 +16067,7 @@
       </c>
       <c r="C169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>113.70325872990193</v>
+        <v>92.540874385971819</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -16075,7 +16079,7 @@
       </c>
       <c r="C170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>116.21576594823753</v>
+        <v>101.46646366617642</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -16087,7 +16091,7 @@
       </c>
       <c r="C171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>99.751791846054317</v>
+        <v>118.69267899576246</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -16099,7 +16103,7 @@
       </c>
       <c r="C172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.771046843560441</v>
+        <v>98.09699520947531</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -16111,7 +16115,7 @@
       </c>
       <c r="C173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86.042487331879713</v>
+        <v>103.78930617496724</v>
       </c>
     </row>
   </sheetData>
@@ -16157,7 +16161,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>71.707761226112638</v>
+        <v>106.55348220910741</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16169,7 +16173,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C36" ca="1" si="0">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>105.65263360851441</v>
+        <v>113.2115486839987</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16181,7 +16185,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>83.193186907404424</v>
+        <v>104.86473579693399</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
@@ -16214,7 +16218,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74.538334632202037</v>
+        <v>127.98393191207451</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -16245,7 +16249,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110.73879838059818</v>
+        <v>78.848136290707799</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>15</v>
@@ -16278,7 +16282,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110.5073692150273</v>
+        <v>88.838912418461632</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>16</v>
@@ -16311,7 +16315,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>72.894475701005433</v>
+        <v>102.22152987139332</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>17</v>
@@ -16344,7 +16348,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.729995984724425</v>
+        <v>87.863350269991415</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
@@ -16375,7 +16379,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99.83218639099421</v>
+        <v>129.34468987163172</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -16408,7 +16412,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84.461999714883589</v>
+        <v>89.311614045436826</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>19</v>
@@ -16441,7 +16445,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114.23505015308959</v>
+        <v>101.36528335405698</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>20</v>
@@ -16474,7 +16478,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91.784248772949951</v>
+        <v>80.843752109737721</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
@@ -16505,7 +16509,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110.51790031562621</v>
+        <v>86.279300165369207</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>23</v>
@@ -16538,7 +16542,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>70.554388116268356</v>
+        <v>116.90990101859421</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>21</v>
@@ -16571,7 +16575,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97.483675741213133</v>
+        <v>97.662809487974144</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -16602,7 +16606,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100.41127735501321</v>
+        <v>97.729189868237341</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>22</v>
@@ -16635,7 +16639,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85.372918780882173</v>
+        <v>121.51543931858612</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>24</v>
@@ -16668,7 +16672,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.975563402557768</v>
+        <v>99.439675529875188</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>29</v>
@@ -16701,7 +16705,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>87.730033835862585</v>
+        <v>119.12031046511331</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -16732,7 +16736,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.724003453940099</v>
+        <v>98.844300543356269</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>25</v>
@@ -16765,7 +16769,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>92.904073293482625</v>
+        <v>111.63854484660715</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>26</v>
@@ -16798,7 +16802,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105.92251119523347</v>
+        <v>106.53684457525399</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -16829,7 +16833,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88.505879741116104</v>
+        <v>114.71031715422387</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -16860,7 +16864,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>113.97245154745782</v>
+        <v>110.03590708479069</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -16872,7 +16876,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.892632550675742</v>
+        <v>124.86010454773357</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -16884,7 +16888,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105.58461242274889</v>
+        <v>102.06106512098626</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -16896,7 +16900,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124.33076917606095</v>
+        <v>142.26267250669946</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -16908,7 +16912,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.14928359461284</v>
+        <v>89.098667191870831</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -16920,7 +16924,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>95.491940820731045</v>
+        <v>115.02456201368352</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -16932,7 +16936,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108.72053272243426</v>
+        <v>125.07043569348507</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -16944,7 +16948,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93.702283417702532</v>
+        <v>123.38088717669112</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -16956,7 +16960,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.05070044920832</v>
+        <v>88.327603160496892</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -16968,7 +16972,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.71085652283693</v>
+        <v>102.6791564260584</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -16980,7 +16984,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>98.759633457282632</v>
+        <v>107.5335625905054</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -16992,7 +16996,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96.480070391261123</v>
+        <v>82.303252079485432</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -17004,7 +17008,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ref="C37:C71" ca="1" si="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>89.862794551247106</v>
+        <v>134.91555764495615</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>7</v>
@@ -17022,18 +17026,18 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>94.421671203699802</v>
+        <v>113.52640916598369</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="1">
         <f ca="1">AVERAGE(C2:C71)</f>
-        <v>99.391140720605492</v>
+        <v>103.08781236937999</v>
       </c>
       <c r="I38" s="1">
         <f ca="1">AVERAGE(C72:C141)</f>
-        <v>90.551126449784149</v>
+        <v>90.852787258450505</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -17045,18 +17049,18 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>120.77832633272288</v>
+        <v>90.086999907673331</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1">
         <f ca="1">_xlfn.STDEV.S(C2:C71)</f>
-        <v>13.892037649677336</v>
+        <v>15.573362167137315</v>
       </c>
       <c r="I39" s="1">
         <f ca="1">_xlfn.STDEV.S(C72:C141)</f>
-        <v>16.807205438327767</v>
+        <v>16.180332000292967</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -17068,7 +17072,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97.72688564521637</v>
+        <v>77.248450000405583</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -17089,18 +17093,18 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97.639128995653977</v>
+        <v>115.48513526815498</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="1">
         <f ca="1">_xlfn.CONFIDENCE.T(0.05,H39,34)</f>
-        <v>4.847161084624342</v>
+        <v>5.4338029421524272</v>
       </c>
       <c r="I41" s="1">
         <f ca="1">_xlfn.CONFIDENCE.T(0.05,I39,34)</f>
-        <v>5.8643112116703175</v>
+        <v>5.6455847288855887</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -17112,7 +17116,7 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>99.907664010623066</v>
+        <v>110.23047986254487</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -17124,7 +17128,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97.252644532392395</v>
+        <v>88.776082640480794</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -17136,14 +17140,14 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>105.35293646902599</v>
+        <v>123.70818858047119</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44">
         <f ca="1">SQRT((69*H39^2+69*I39^2)/138)</f>
-        <v>15.418671549556516</v>
+        <v>15.879747366197744</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -17155,14 +17159,14 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.00606267348823</v>
+        <v>99.880236605860858</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="1">
         <f ca="1">(H38-I38)/(H44*SQRT(2/70))</f>
-        <v>3.3918765012814927</v>
+        <v>4.55822016781981</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -17174,7 +17178,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>105.5516334727303</v>
+        <v>97.591017849244366</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -17193,7 +17197,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>89.598470538084598</v>
+        <v>88.2364063735359</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -17212,14 +17216,14 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.64492834755956</v>
+        <v>80.47739509884093</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
       </c>
       <c r="H48">
         <f ca="1">_xlfn.T.TEST(C2:C71,C72:C141,1,2)</f>
-        <v>4.5294912541683942E-4</v>
+        <v>5.628682306339434E-6</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -17231,14 +17235,14 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>93.800835629783677</v>
+        <v>83.265057177209087</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49">
         <f ca="1">_xlfn.T.DIST.RT(H45,138)</f>
-        <v>4.5294912541686419E-4</v>
+        <v>5.6286823063399558E-6</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -17250,7 +17254,7 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>114.56576366843672</v>
+        <v>99.462610849774194</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -17262,7 +17266,7 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.904379253518385</v>
+        <v>85.981024429946217</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -17274,7 +17278,7 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>106.46877705863936</v>
+        <v>103.61319022225109</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -17293,7 +17297,7 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102.34782158862001</v>
+        <v>80.201784677972228</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -17305,14 +17309,14 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.31875643797548</v>
+        <v>89.807685361170286</v>
       </c>
       <c r="G54" t="s">
         <v>4</v>
       </c>
       <c r="H54">
         <f ca="1">(H38-I38)/H44</f>
-        <v>0.57333177131434554</v>
+        <v>0.77047983376444895</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -17324,7 +17328,7 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>119.94361705567371</v>
+        <v>89.432378807785639</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -17336,7 +17340,7 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96.617731689637282</v>
+        <v>121.75666632912501</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -17348,7 +17352,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109.98099593742251</v>
+        <v>114.11772813625088</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -17360,7 +17364,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>123.25729172186858</v>
+        <v>85.963639161422321</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -17372,7 +17376,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>66.023999135910941</v>
+        <v>99.017477587045178</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -17384,7 +17388,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>117.05891281144078</v>
+        <v>88.36393175605744</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -17396,7 +17400,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>77.965394865426276</v>
+        <v>132.34202937602899</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -17408,7 +17412,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90.964563497159446</v>
+        <v>106.26814558460715</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -17420,7 +17424,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>106.71734595016224</v>
+        <v>105.31921771343062</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -17432,7 +17436,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95.860125727322909</v>
+        <v>123.93016128786326</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -17444,7 +17448,7 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>100.306012992959</v>
+        <v>88.869560486895068</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -17456,7 +17460,7 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135.62907604658443</v>
+        <v>100.68982904191792</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -17468,7 +17472,7 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>108.31217561305336</v>
+        <v>90.422307848784129</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -17480,7 +17484,7 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>77.027059509507126</v>
+        <v>104.86696871545814</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -17492,7 +17496,7 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>98.120667422360754</v>
+        <v>112.45096749038062</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -17504,7 +17508,7 @@
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>116.86714031936168</v>
+        <v>85.797112605735521</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -17516,7 +17520,7 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>114.35422674540334</v>
+        <v>109.76955681212745</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -17528,7 +17532,7 @@
       </c>
       <c r="C72" s="2">
         <f t="shared" ref="C72:C105" ca="1" si="2">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>118.94733930848935</v>
+        <v>88.921834213901306</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -17540,7 +17544,7 @@
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>79.801837072227201</v>
+        <v>76.948978301897412</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -17552,7 +17556,7 @@
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>114.9141642714557</v>
+        <v>50.470712741675889</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -17564,7 +17568,7 @@
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>55.294210266430497</v>
+        <v>76.200115677066378</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -17576,7 +17580,7 @@
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>93.246093505115738</v>
+        <v>104.03377403967194</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -17588,7 +17592,7 @@
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>111.70663496525378</v>
+        <v>67.022668534321568</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -17600,7 +17604,7 @@
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>75.630409661110633</v>
+        <v>95.204455297703305</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -17612,7 +17616,7 @@
       </c>
       <c r="C79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>80.568999767874061</v>
+        <v>99.582061538053253</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -17624,7 +17628,7 @@
       </c>
       <c r="C80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>93.57157371383218</v>
+        <v>95.49161628569631</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -17636,7 +17640,7 @@
       </c>
       <c r="C81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>103.83914044308943</v>
+        <v>61.926027676668127</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -17648,7 +17652,7 @@
       </c>
       <c r="C82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>120.01490691740736</v>
+        <v>91.86334085833704</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -17660,7 +17664,7 @@
       </c>
       <c r="C83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>104.9255579062592</v>
+        <v>92.849827848036867</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -17672,7 +17676,7 @@
       </c>
       <c r="C84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97.598595303337518</v>
+        <v>97.115356287523284</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -17684,7 +17688,7 @@
       </c>
       <c r="C85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96.752902754042651</v>
+        <v>101.50432531096067</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -17696,7 +17700,7 @@
       </c>
       <c r="C86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92.851360441581662</v>
+        <v>68.367718737254393</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -17708,7 +17712,7 @@
       </c>
       <c r="C87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>106.06286703029971</v>
+        <v>127.11374596543654</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -17720,7 +17724,7 @@
       </c>
       <c r="C88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>99.408546803004739</v>
+        <v>64.954108039804595</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -17732,7 +17736,7 @@
       </c>
       <c r="C89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>93.141994872607313</v>
+        <v>83.454612011096984</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -17744,7 +17748,7 @@
       </c>
       <c r="C90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>78.412335360512287</v>
+        <v>88.511016766226973</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -17756,7 +17760,7 @@
       </c>
       <c r="C91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90.730917244675965</v>
+        <v>81.516648386278774</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -17768,7 +17772,7 @@
       </c>
       <c r="C92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>111.62906600806552</v>
+        <v>87.046742010153778</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -17780,7 +17784,7 @@
       </c>
       <c r="C93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>105.17375058600061</v>
+        <v>94.47147795898735</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -17792,7 +17796,7 @@
       </c>
       <c r="C94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>80.164710705847995</v>
+        <v>107.53346865423056</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -17804,7 +17808,7 @@
       </c>
       <c r="C95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>56.382591832854871</v>
+        <v>84.279954390213589</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -17816,7 +17820,7 @@
       </c>
       <c r="C96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>102.7785806713417</v>
+        <v>103.45514780779627</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -17828,7 +17832,7 @@
       </c>
       <c r="C97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>111.40295763232581</v>
+        <v>78.884064078973751</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -17840,7 +17844,7 @@
       </c>
       <c r="C98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>95.651157541190329</v>
+        <v>94.204200564786234</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -17852,7 +17856,7 @@
       </c>
       <c r="C99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>80.822318178363787</v>
+        <v>123.19357056238574</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -17864,7 +17868,7 @@
       </c>
       <c r="C100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>72.734031497689202</v>
+        <v>84.68289487224709</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -17876,7 +17880,7 @@
       </c>
       <c r="C101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>76.714477514522287</v>
+        <v>79.161990826059025</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -17888,7 +17892,7 @@
       </c>
       <c r="C102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>105.11452403986094</v>
+        <v>69.296360714664345</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -17900,7 +17904,7 @@
       </c>
       <c r="C103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>77.829689279659192</v>
+        <v>95.750433730810656</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -17912,7 +17916,7 @@
       </c>
       <c r="C104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88.194233814015419</v>
+        <v>87.845331975192209</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -17924,7 +17928,7 @@
       </c>
       <c r="C105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90.262343158536581</v>
+        <v>80.229361436689601</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -17936,7 +17940,7 @@
       </c>
       <c r="C106" s="2">
         <f t="shared" ref="C106:C141" ca="1" si="3">_xlfn.NORM.INV(RAND(),92.5,15)</f>
-        <v>93.2131005999574</v>
+        <v>118.92122920094437</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -17948,7 +17952,7 @@
       </c>
       <c r="C107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>106.22917601161471</v>
+        <v>72.471846935831067</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -17960,7 +17964,7 @@
       </c>
       <c r="C108" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>88.313542269444213</v>
+        <v>98.989091943133531</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -17972,7 +17976,7 @@
       </c>
       <c r="C109" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86.726763585380397</v>
+        <v>93.31284780241721</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -17984,7 +17988,7 @@
       </c>
       <c r="C110" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>72.181020844662115</v>
+        <v>92.03771235892772</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -17996,7 +18000,7 @@
       </c>
       <c r="C111" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>82.789505074781914</v>
+        <v>75.828831585505469</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -18008,7 +18012,7 @@
       </c>
       <c r="C112" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94.065103767648907</v>
+        <v>106.79819641125667</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -18020,7 +18024,7 @@
       </c>
       <c r="C113" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>113.8955372566472</v>
+        <v>95.897410757344517</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -18032,7 +18036,7 @@
       </c>
       <c r="C114" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>80.439971925823741</v>
+        <v>90.336217112323794</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -18044,7 +18048,7 @@
       </c>
       <c r="C115" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87.264350313992693</v>
+        <v>84.136372674780276</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -18056,7 +18060,7 @@
       </c>
       <c r="C116" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>84.519976579644265</v>
+        <v>102.15332187566435</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -18068,7 +18072,7 @@
       </c>
       <c r="C117" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>106.09190620349825</v>
+        <v>99.606086148018136</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -18080,7 +18084,7 @@
       </c>
       <c r="C118" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46.729974360758689</v>
+        <v>93.023331741484355</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -18092,7 +18096,7 @@
       </c>
       <c r="C119" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>101.02508595373533</v>
+        <v>75.388590372753683</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -18104,7 +18108,7 @@
       </c>
       <c r="C120" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85.183217805045018</v>
+        <v>99.164779383916397</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -18116,7 +18120,7 @@
       </c>
       <c r="C121" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>95.677290573502319</v>
+        <v>63.145467299069708</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -18128,7 +18132,7 @@
       </c>
       <c r="C122" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94.74520124230915</v>
+        <v>100.90167471900995</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -18140,7 +18144,7 @@
       </c>
       <c r="C123" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>114.37570110218083</v>
+        <v>116.28161709951947</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -18152,7 +18156,7 @@
       </c>
       <c r="C124" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.703011451500899</v>
+        <v>66.427845852437443</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -18164,7 +18168,7 @@
       </c>
       <c r="C125" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>102.88538510914243</v>
+        <v>113.71122208585932</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -18176,7 +18180,7 @@
       </c>
       <c r="C126" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>88.692497954319023</v>
+        <v>72.576902163233584</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -18188,7 +18192,7 @@
       </c>
       <c r="C127" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>83.538724448225622</v>
+        <v>86.858082748484676</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -18200,7 +18204,7 @@
       </c>
       <c r="C128" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>80.69498003854585</v>
+        <v>82.966856412451179</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -18212,7 +18216,7 @@
       </c>
       <c r="C129" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>112.33045322061788</v>
+        <v>115.93746058536919</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -18224,7 +18228,7 @@
       </c>
       <c r="C130" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>103.33856868631196</v>
+        <v>96.298407441161416</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -18236,7 +18240,7 @@
       </c>
       <c r="C131" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>42.705558186055569</v>
+        <v>81.147035203410852</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -18248,7 +18252,7 @@
       </c>
       <c r="C132" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>97.181403518684249</v>
+        <v>114.18621984623044</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -18260,7 +18264,7 @@
       </c>
       <c r="C133" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>51.986119868376441</v>
+        <v>68.161189284920098</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -18272,7 +18276,7 @@
       </c>
       <c r="C134" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>96.658188998905715</v>
+        <v>104.3526820960395</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -18284,7 +18288,7 @@
       </c>
       <c r="C135" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>88.71012697349849</v>
+        <v>98.912868172068329</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -18296,7 +18300,7 @@
       </c>
       <c r="C136" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>77.639035526133853</v>
+        <v>87.120339467391915</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -18308,7 +18312,7 @@
       </c>
       <c r="C137" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>99.106815851195762</v>
+        <v>115.12029808603231</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -18320,7 +18324,7 @@
       </c>
       <c r="C138" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>55.184518327744428</v>
+        <v>104.62502745897831</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -18332,7 +18336,7 @@
       </c>
       <c r="C139" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87.318608818666007</v>
+        <v>86.169312253839394</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -18344,7 +18348,7 @@
       </c>
       <c r="C140" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92.781511614382993</v>
+        <v>84.378048274666142</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -18356,7 +18360,7 @@
       </c>
       <c r="C141" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>89.382097353073561</v>
+        <v>119.26274113625811</v>
       </c>
     </row>
   </sheetData>
